--- a/result_excel/_modbus.xlsx
+++ b/result_excel/_modbus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,17 +465,17 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9.183549615799121e-41</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -487,43 +487,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.401298464324817e-45</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>232</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/result_excel/_modbus.xlsx
+++ b/result_excel/_modbus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,50 +460,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>224</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.183549615799121e-41</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>225</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.401298464324817e-45</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/result_excel/_modbus.xlsx
+++ b/result_excel/_modbus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,226 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>194</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2119884456591360</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-9999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2127312468312064</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>55537</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-9999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2127312468312064</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>55537</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-9999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.660821322125163e-38</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>55537</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>180</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.522337235784671e-43</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-2119858418352128</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-9999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.782391281320737e-41</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>55537</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
